--- a/outputs-r202/g__UBA6382.xlsx
+++ b/outputs-r202/g__UBA6382.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>s__UBA6382 sp002439755</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>s__UBA6382 sp002439755(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>s__UBA6382 sp900316315</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>s__UBA6382 sp900316315</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,6 +650,11 @@
           <t>s__UBA6382 sp900318305</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>s__UBA6382 sp900318305</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -678,6 +698,11 @@
       <c r="M5" t="inlineStr">
         <is>
           <t>s__UBA6382 sp002439755</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>s__UBA6382 sp002439755(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__UBA6382.xlsx
+++ b/outputs-r202/g__UBA6382.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,200 +509,100 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG112.fasta</t>
+          <t>RUG174.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.415397722125065e-13</v>
+        <v>2.220444573758249e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1358806248378841</v>
+        <v>6.645154317541565e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3081073644984549</v>
+        <v>2.220444573758249e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.197983349530847e-08</v>
+        <v>2.220444573758249e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.415397722125065e-13</v>
+        <v>0.9999933548455049</v>
       </c>
       <c r="G2" t="n">
-        <v>0.308107364498455</v>
+        <v>2.220444573758249e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2479046341846649</v>
+        <v>2.220444573758249e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>1.415397722125065e-13</v>
+        <v>2.220444573758249e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>1.415397722125066e-13</v>
+        <v>2.220444573758249e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>1.415397722125066e-13</v>
+        <v>2.220444573758249e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0.308107364498455</v>
+        <v>0.9999933548455049</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>s__UBA6382 sp002439755</t>
+          <t>s__UBA6382 sp900316315</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>s__UBA6382 sp002439755(reject)</t>
+          <t>s__UBA6382 sp900316315</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG174.fasta</t>
+          <t>RUG376.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220444573758249e-14</v>
+        <v>2.220410679204047e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>6.645154317541565e-06</v>
+        <v>0.0001467614966687948</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220444573758249e-14</v>
+        <v>2.220410679204047e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220444573758249e-14</v>
+        <v>1.260532012156068e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999933548455049</v>
+        <v>2.220410679204047e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220444573758249e-14</v>
+        <v>0.9998406331830543</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220444573758249e-14</v>
+        <v>2.220410679204047e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.220444573758249e-14</v>
+        <v>2.220410679204047e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220444573758249e-14</v>
+        <v>2.220410679204047e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220444573758249e-14</v>
+        <v>2.220410679204047e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9999933548455049</v>
+        <v>0.9998406331830543</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>s__UBA6382 sp900316315</t>
+          <t>s__UBA6382 sp900318305</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>s__UBA6382 sp900316315</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG376.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.220410679204047e-14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0001467614966687948</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.220410679204047e-14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.260532012156068e-05</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.220410679204047e-14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9998406331830543</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.220410679204047e-14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.220410679204047e-14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.220410679204047e-14</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.220410679204047e-14</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9998406331830543</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
           <t>s__UBA6382 sp900318305</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>s__UBA6382 sp900318305</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG536.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.3039981685756712</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04886153344692395</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3431409188852744</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.210507363378755e-06</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.819383255327964e-12</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.819383255327965e-12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3039981685756703</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.819383255327965e-12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.819383255327965e-12</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.819383255327965e-12</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3431409188852744</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>s__UBA6382 sp002439755</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>s__UBA6382 sp002439755(reject)</t>
         </is>
       </c>
     </row>
